--- a/server/LISTAS/mi/PITONES ROSCA W..xlsx
+++ b/server/LISTAS/mi/PITONES ROSCA W..xlsx
@@ -853,7 +853,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45289</v>
+        <v>45306</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/mi/PITONES ROSCA W..xlsx
+++ b/server/LISTAS/mi/PITONES ROSCA W..xlsx
@@ -853,7 +853,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45306</v>
+        <v>45308</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/mi/PITONES ROSCA W..xlsx
+++ b/server/LISTAS/mi/PITONES ROSCA W..xlsx
@@ -853,7 +853,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45308</v>
+        <v>45309</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="C33" s="30" t="n"/>
       <c r="D33" s="14" t="n">
-        <v>2498.744</v>
+        <v>3823.437</v>
       </c>
     </row>
     <row r="34" ht="17.25" customHeight="1" s="1">
@@ -949,7 +949,7 @@
       </c>
       <c r="C34" s="30" t="n"/>
       <c r="D34" s="14" t="n">
-        <v>2498.744</v>
+        <v>3823.437</v>
       </c>
     </row>
     <row r="35" ht="16.5" customHeight="1" s="1">
@@ -965,7 +965,7 @@
       </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="14" t="n">
-        <v>3268.769</v>
+        <v>5001.688</v>
       </c>
     </row>
     <row r="36" ht="16.5" customHeight="1" s="1">
@@ -981,7 +981,7 @@
       </c>
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="14" t="n">
-        <v>3268.794</v>
+        <v>5001.725</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1" s="1">
@@ -997,7 +997,7 @@
       </c>
       <c r="C37" s="28" t="n"/>
       <c r="D37" s="14" t="n">
-        <v>3268.769</v>
+        <v>5001.688</v>
       </c>
     </row>
     <row r="38" ht="16.5" customHeight="1" s="1">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="14" t="n">
-        <v>4120.371</v>
+        <v>6304.761</v>
       </c>
     </row>
     <row r="44">
@@ -1035,17 +1035,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/PITONES ROSCA W..xlsx
+++ b/server/LISTAS/mi/PITONES ROSCA W..xlsx
@@ -853,7 +853,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45309</v>
+        <v>45310</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>

--- a/server/LISTAS/mi/PITONES ROSCA W..xlsx
+++ b/server/LISTAS/mi/PITONES ROSCA W..xlsx
@@ -853,7 +853,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45310</v>
+        <v>45311</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="C33" s="30" t="n"/>
       <c r="D33" s="14" t="n">
-        <v>3823.437</v>
+        <v>2498.744</v>
       </c>
     </row>
     <row r="34" ht="17.25" customHeight="1" s="1">
@@ -949,7 +949,7 @@
       </c>
       <c r="C34" s="30" t="n"/>
       <c r="D34" s="14" t="n">
-        <v>3823.437</v>
+        <v>2498.744</v>
       </c>
     </row>
     <row r="35" ht="16.5" customHeight="1" s="1">
@@ -965,7 +965,7 @@
       </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="14" t="n">
-        <v>5001.688</v>
+        <v>3268.769</v>
       </c>
     </row>
     <row r="36" ht="16.5" customHeight="1" s="1">
@@ -981,7 +981,7 @@
       </c>
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="14" t="n">
-        <v>5001.725</v>
+        <v>3268.794</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1" s="1">
@@ -997,7 +997,7 @@
       </c>
       <c r="C37" s="28" t="n"/>
       <c r="D37" s="14" t="n">
-        <v>5001.688</v>
+        <v>3268.769</v>
       </c>
     </row>
     <row r="38" ht="16.5" customHeight="1" s="1">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="14" t="n">
-        <v>6304.761</v>
+        <v>4120.371</v>
       </c>
     </row>
     <row r="44">
@@ -1035,17 +1035,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/PITONES ROSCA W..xlsx
+++ b/server/LISTAS/mi/PITONES ROSCA W..xlsx
@@ -853,7 +853,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45311</v>
+        <v>45344</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1035,17 +1035,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/PITONES ROSCA W..xlsx
+++ b/server/LISTAS/mi/PITONES ROSCA W..xlsx
@@ -853,7 +853,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45344</v>
+        <v>45405</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1035,17 +1035,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/PITONES ROSCA W..xlsx
+++ b/server/LISTAS/mi/PITONES ROSCA W..xlsx
@@ -853,7 +853,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45405</v>
+        <v>45406</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -1035,17 +1035,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A10:D10"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="B37:C37"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>

--- a/server/LISTAS/mi/PITONES ROSCA W..xlsx
+++ b/server/LISTAS/mi/PITONES ROSCA W..xlsx
@@ -853,7 +853,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="23" t="n">
-        <v>45406</v>
+        <v>45436</v>
       </c>
       <c r="E1" s="4" t="n"/>
     </row>
@@ -933,7 +933,7 @@
       </c>
       <c r="C33" s="30" t="n"/>
       <c r="D33" s="14" t="n">
-        <v>2498.744</v>
+        <v>4282.249</v>
       </c>
     </row>
     <row r="34" ht="17.25" customHeight="1" s="1">
@@ -949,7 +949,7 @@
       </c>
       <c r="C34" s="30" t="n"/>
       <c r="D34" s="14" t="n">
-        <v>2498.744</v>
+        <v>4282.249</v>
       </c>
     </row>
     <row r="35" ht="16.5" customHeight="1" s="1">
@@ -965,7 +965,7 @@
       </c>
       <c r="C35" s="28" t="n"/>
       <c r="D35" s="14" t="n">
-        <v>3268.769</v>
+        <v>5601.891</v>
       </c>
     </row>
     <row r="36" ht="16.5" customHeight="1" s="1">
@@ -981,7 +981,7 @@
       </c>
       <c r="C36" s="28" t="n"/>
       <c r="D36" s="14" t="n">
-        <v>3268.794</v>
+        <v>5601.932</v>
       </c>
     </row>
     <row r="37" ht="16.5" customHeight="1" s="1">
@@ -997,7 +997,7 @@
       </c>
       <c r="C37" s="28" t="n"/>
       <c r="D37" s="14" t="n">
-        <v>3268.769</v>
+        <v>5601.891</v>
       </c>
     </row>
     <row r="38" ht="16.5" customHeight="1" s="1">
@@ -1013,7 +1013,7 @@
       </c>
       <c r="C38" s="28" t="n"/>
       <c r="D38" s="14" t="n">
-        <v>4120.371</v>
+        <v>7061.332</v>
       </c>
     </row>
     <row r="44">
@@ -1035,17 +1035,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B36:C36"/>
     <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A10:D10"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="A1:D1"/>
     <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="B36:C36"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
   <pageSetup orientation="portrait" paperSize="9" horizontalDpi="0" verticalDpi="0"/>
